--- a/dataset_Info.xlsx
+++ b/dataset_Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scymg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scymg\Desktop\Cropper\Cropper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626C550B-3998-4F0A-A5E1-555437CED7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D888B43-A6DD-42F3-861C-F3320064C977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="17270" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
   <si>
     <t>Rice</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,86 @@
   </si>
   <si>
     <t>cabbage_healthy</t>
+  </si>
+  <si>
+    <t>Apple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>Tomato</t>
+  </si>
+  <si>
+    <t>Alternaria leaf spot</t>
+  </si>
+  <si>
+    <t>Brown spot</t>
+  </si>
+  <si>
+    <t>Gray spot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Healthy leaf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rust</t>
+  </si>
+  <si>
+    <t>Bacterial Leaf Spot</t>
+  </si>
+  <si>
+    <t>Downy Mildew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Healthy Leaf</t>
+  </si>
+  <si>
+    <t>Mosaic Disease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Powdery Mildew</t>
+  </si>
+  <si>
+    <t>Tomato Early blight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomato healthy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomato Late blight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomato Leaf Mold  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomato Septoria leaf spot  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomato Spider mites Two-spotted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomato Target Spot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomato mosaic virus </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomato Yellow Leaf Curl Virus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -412,15 +492,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:AD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,8 +513,17 @@
       <c r="N1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>84</v>
       </c>
@@ -459,8 +548,26 @@
       <c r="O3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S3">
+        <v>151</v>
+      </c>
+      <c r="T3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3">
+        <v>280</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC3">
+        <v>72</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>84</v>
       </c>
@@ -485,223 +592,579 @@
       <c r="O4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S4">
+        <v>151</v>
+      </c>
+      <c r="T4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X4">
+        <v>280</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC4">
+        <v>72</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>84</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S5">
+        <v>151</v>
+      </c>
+      <c r="T5" t="s">
+        <v>21</v>
+      </c>
+      <c r="X5">
+        <v>280</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC5">
+        <v>72</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>84</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S6">
+        <v>151</v>
+      </c>
+      <c r="T6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X6">
+        <v>280</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC6">
+        <v>72</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>84</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S7">
+        <v>151</v>
+      </c>
+      <c r="T7" t="s">
+        <v>23</v>
+      </c>
+      <c r="X7">
+        <v>280</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC7">
+        <v>72</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>84</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>42</v>
-      </c>
-      <c r="F11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11">
-        <v>41</v>
-      </c>
-      <c r="J11" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11">
-        <v>13</v>
-      </c>
-      <c r="O11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>42</v>
-      </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12">
-        <v>32</v>
-      </c>
-      <c r="J12" t="s">
-        <v>9</v>
-      </c>
-      <c r="N12">
-        <v>31</v>
-      </c>
-      <c r="O12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="AC8">
+        <v>72</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC9">
+        <v>72</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC10">
+        <v>72</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC11">
+        <v>72</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>41</v>
+      </c>
+      <c r="J15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <v>13</v>
+      </c>
+      <c r="O15" t="s">
+        <v>14</v>
+      </c>
+      <c r="S15">
+        <v>21</v>
+      </c>
+      <c r="T15" t="s">
+        <v>19</v>
+      </c>
+      <c r="X15">
+        <v>40</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC15">
+        <v>9</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>32</v>
+      </c>
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16">
+        <v>31</v>
+      </c>
+      <c r="O16" t="s">
+        <v>15</v>
+      </c>
+      <c r="S16">
+        <v>21</v>
+      </c>
+      <c r="T16" t="s">
+        <v>20</v>
+      </c>
+      <c r="X16">
+        <v>40</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC16">
+        <v>9</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="S17">
+        <v>21</v>
+      </c>
+      <c r="T17" t="s">
+        <v>21</v>
+      </c>
+      <c r="X17">
+        <v>40</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC17">
+        <v>9</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="S18">
+        <v>21</v>
+      </c>
+      <c r="T18" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18">
+        <v>40</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC18">
+        <v>9</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="S19">
+        <v>21</v>
+      </c>
+      <c r="T19" t="s">
+        <v>23</v>
+      </c>
+      <c r="X19">
+        <v>40</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC19">
+        <v>9</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC20">
+        <v>9</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC21">
+        <v>9</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC22">
+        <v>9</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC23">
+        <v>9</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B26" t="s">
         <v>4</v>
       </c>
-      <c r="E18">
+      <c r="E26">
         <v>84</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F26" t="s">
         <v>5</v>
       </c>
-      <c r="I18">
+      <c r="I26">
         <v>82</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J26" t="s">
         <v>6</v>
       </c>
-      <c r="N18">
+      <c r="N26">
         <v>26</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O26" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="S26">
+        <v>43</v>
+      </c>
+      <c r="T26" t="s">
+        <v>19</v>
+      </c>
+      <c r="X26">
+        <v>80</v>
+      </c>
+      <c r="Y26" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="s">
+      <c r="AC26">
+        <v>18</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="E19">
+      <c r="E27">
         <v>84</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F27" t="s">
         <v>8</v>
       </c>
-      <c r="I19">
+      <c r="I27">
         <v>64</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J27" t="s">
         <v>9</v>
       </c>
-      <c r="N19">
+      <c r="N27">
         <v>62</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O27" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="S27">
+        <v>43</v>
+      </c>
+      <c r="T27" t="s">
+        <v>20</v>
+      </c>
+      <c r="X27">
+        <v>80</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC27">
+        <v>18</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B28" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="S28">
+        <v>43</v>
+      </c>
+      <c r="T28" t="s">
+        <v>21</v>
+      </c>
+      <c r="X28">
+        <v>80</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC28">
+        <v>18</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B29" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="S29">
+        <v>43</v>
+      </c>
+      <c r="T29" t="s">
+        <v>22</v>
+      </c>
+      <c r="X29">
+        <v>80</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC29">
+        <v>18</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>24</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B30" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="S30">
+        <v>43</v>
+      </c>
+      <c r="T30" t="s">
+        <v>23</v>
+      </c>
+      <c r="X30">
+        <v>80</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC30">
+        <v>18</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>24</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B31" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <f>SUM(A3:A25)</f>
+      <c r="AC31">
+        <v>18</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC32">
+        <v>18</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC33">
+        <v>18</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC34">
+        <v>18</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f>SUM(A3:A33)</f>
         <v>720</v>
       </c>
-      <c r="E26">
-        <f>SUM(E3:E25)</f>
+      <c r="E39">
+        <f>SUM(E3:E33)</f>
         <v>836</v>
       </c>
-      <c r="I26">
-        <f>SUM(I3:I25)</f>
+      <c r="I39">
+        <f>SUM(I3:I33)</f>
         <v>730</v>
       </c>
-      <c r="N26">
-        <f>SUM(N3:N25)</f>
+      <c r="N39">
+        <f>SUM(N3:N33)</f>
         <v>439</v>
+      </c>
+      <c r="S39">
+        <f>SUM(S3:S33)</f>
+        <v>1075</v>
+      </c>
+      <c r="X39">
+        <f>SUM(X3:X33)</f>
+        <v>2000</v>
+      </c>
+      <c r="AC39">
+        <f>SUM(AC3:AC34)</f>
+        <v>891</v>
       </c>
     </row>
   </sheetData>
